--- a/Analysis/Workspace.xlsx
+++ b/Analysis/Workspace.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Heuristic Comparison" sheetId="1" r:id="rId1"/>
-    <sheet name="Error across tablesizes" sheetId="2" r:id="rId2"/>
-    <sheet name="Heuristic with shuffling" sheetId="3" r:id="rId3"/>
-    <sheet name="Netflow PosNeg" sheetId="4" r:id="rId4"/>
+    <sheet name="D4 comparison" sheetId="5" r:id="rId2"/>
+    <sheet name="Error across tablesizes" sheetId="2" r:id="rId3"/>
+    <sheet name="Heuristic with shuffling" sheetId="3" r:id="rId4"/>
+    <sheet name="Netflow PosNeg" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Error Margin for d left</t>
   </si>
@@ -48,6 +49,15 @@
   </si>
   <si>
     <t>Error Margin for evicting</t>
+  </si>
+  <si>
+    <t>percentage of big losers reported</t>
+  </si>
+  <si>
+    <t>false negative</t>
+  </si>
+  <si>
+    <t>deviation from actuall loss</t>
   </si>
 </sst>
 </file>
@@ -141,7 +151,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -870,8 +879,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334985224"/>
-        <c:axId val="304778048"/>
+        <c:axId val="253340792"/>
+        <c:axId val="253341968"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1888,7 +1897,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334985224"/>
+        <c:axId val="253340792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1940,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1992,12 +2000,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304778048"/>
+        <c:crossAx val="253341968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304778048"/>
+        <c:axId val="253341968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2053,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2105,7 +2112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334985224"/>
+        <c:crossAx val="253340792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2119,7 +2126,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2157,6 +2163,793 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DLeft</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="lgDashDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Netflow PosNeg'!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Netflow PosNeg'!$G$1:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27785473975855901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55155353255491701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60612507421333806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.706758361369483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.746487235305759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81763308925390799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.874233128834355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.849643775974668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89308331684148001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93137739956461496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Basic Heuristic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Netflow PosNeg'!$A$12:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Netflow PosNeg'!$G$12:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.434049079754601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61097367900257205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.715762913120918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86928557292697395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85751038986740502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90634276667326297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95265188996635597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96789036216109203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96408074411240796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96477340193944106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Eviction With Count</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Netflow PosNeg'!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Netflow PosNeg'!$G$34:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.53893726499109396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73263407876509001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80724322184840602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90228577082921002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.870720364140114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.923609736790025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95700573916485199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97867603403918402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.944241044923807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97169998020977599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Eviction Without Count</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Netflow PosNeg'!$A$23:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Netflow PosNeg'!$G$23:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.44562636057787403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72140312685533303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79932713239659603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90149416188402898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90782703344547699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94829804076785995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96719770433405805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96922620225608502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96175539283593903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98213932317435104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="254893024"/>
+        <c:axId val="256118664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="254893024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Table Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256118664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="256118664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fraction of big loser packets reported</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254893024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2888,11 +3681,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304726384"/>
-        <c:axId val="304721680"/>
+        <c:axId val="253342360"/>
+        <c:axId val="253342752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="304726384"/>
+        <c:axId val="253342360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2938,7 +3731,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3005,12 +3797,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304721680"/>
+        <c:crossAx val="253342752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304721680"/>
+        <c:axId val="253342752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3848,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3123,7 +3914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304726384"/>
+        <c:crossAx val="253342360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3214,6 +4005,2563 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fraction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Big Losers Reported for threshold 0.002</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ReplaceValWith1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.538195131604987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74337027508410802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88056600039580402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93835345339402298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.976301207203641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.995398773006135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99767464872352996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ReplaceValWithMin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.62650900455175096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86963190184049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97511379378586904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99267761725707504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99698199089649697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99772412428260404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RollingMin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$D$1:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.54329111418958997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69582426281416898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80912329309321196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84227191767266896</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84479517118543401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87566792004749605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90327528201068596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90733227785473902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91148822481694003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.938551355630318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>NoCoalescence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$E$1:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.30071244805066299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56802889372649901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63531565406689094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.720364140114783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71210172174945496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76415000989511095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78443498911537701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75222640015832098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78280229566594095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81214130219671399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="253343928"/>
+        <c:axId val="253344320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="253343928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Table Size for 400 lossy flows</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253344320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="253344320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fraction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> reported</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253343928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>False Negatives for 400</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> lossy flows for threshold 0.002</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11378455818022748"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ReplaceValWith1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$12:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$B$12:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.79338842975206603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54545454545454497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28099173553718998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.173553719008264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.43801652892562E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6528925619834701E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2644628099173504E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ReplaceValWithMinVal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$12:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$C$12:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65289256198347101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30578512396694202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.43801652892562E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4793388429752001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2644628099173504E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2644628099173504E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Rolling Min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$12:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$D$12:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.77685950413223104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61157024793388404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46280991735537103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40495867768595001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38016528925619802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30578512396694202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.256198347107438</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22314049586776799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19834710743801601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.165289256198347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>NoCoalescence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$12:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$E$12:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90909090909090895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75206611570247905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68595041322313999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57851239669421395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61157024793388404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52892561983470998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47107438016528902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53719008264462798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46280991735537103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.413223140495867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="254886360"/>
+        <c:axId val="254888320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="254886360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Table Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254888320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="254888320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fraction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of expected flows that go unreported</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254886360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weighted Average Deviation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of reported loss from actual loss per observed big loser</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ReplaceValWith1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$23:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$B$23:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.6751241036955E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0232945091514298E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.88785256770422E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2232415902140401E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5744184867988602E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9190579853551999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4911277896515801E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0414083808578901E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>2.9685335444290501E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>7.9160894518107096E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ReplaceMinValWithVal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$23:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$C$23:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.75963188270159898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24796545424348301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5978867038450405E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.27606461086639E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2473543665315908E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8695824262814302E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6823354774864101E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.48096954139309E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>6.4318226795963295E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>6.4178515007898805E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RollingMin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$23:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$D$23:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.124760950733087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10302901023890899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10926990338755201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0561560150375698E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1390922401170703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8761511949826904E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9249055156925399E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.78853808822729E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.16701948651143E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1486557722720301E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Nocoalesence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$A$23:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D4 comparison'!$E$23:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.52648897663704497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54350666318264995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59496923915583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61929945054945501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52080872646426601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65516348332793195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61343424787132905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58392528282031197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58835798255593597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58598842522083505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="254893416"/>
+        <c:axId val="254888712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="254893416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Table Size for 400 lossy flows</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254888712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="254888712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Devaition</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254893416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4676,11 +8024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304780400"/>
-        <c:axId val="304777264"/>
+        <c:axId val="254887928"/>
+        <c:axId val="254891848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="304780400"/>
+        <c:axId val="254887928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4783,12 +8131,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304777264"/>
+        <c:crossAx val="254891848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304777264"/>
+        <c:axId val="254891848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4891,7 +8239,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304780400"/>
+        <c:crossAx val="254887928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4979,7 +8327,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5020,7 +8368,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6263,8 +9610,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304774520"/>
-        <c:axId val="304779224"/>
+        <c:axId val="254886752"/>
+        <c:axId val="254891456"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -6581,7 +9928,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="304774520"/>
+        <c:axId val="254886752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6624,7 +9971,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6685,12 +10031,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304779224"/>
+        <c:crossAx val="254891456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304779224"/>
+        <c:axId val="254891456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6738,7 +10084,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6798,7 +10143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304774520"/>
+        <c:crossAx val="254886752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6812,7 +10157,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6876,7 +10220,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7348,11 +10692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304781184"/>
-        <c:axId val="304781576"/>
+        <c:axId val="254890672"/>
+        <c:axId val="254891064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="304781184"/>
+        <c:axId val="254890672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7403,7 +10747,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7470,12 +10813,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304781576"/>
+        <c:crossAx val="254891064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304781576"/>
+        <c:axId val="254891064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7526,7 +10869,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7593,7 +10935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304781184"/>
+        <c:crossAx val="254890672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7607,7 +10949,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7674,7 +11015,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8146,11 +11487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304776088"/>
-        <c:axId val="304776480"/>
+        <c:axId val="254890280"/>
+        <c:axId val="254892240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="304776088"/>
+        <c:axId val="254890280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8196,7 +11537,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8263,12 +11603,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304776480"/>
+        <c:crossAx val="254892240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304776480"/>
+        <c:axId val="254892240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8319,7 +11659,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8386,7 +11725,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304776088"/>
+        <c:crossAx val="254890280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8400,797 +11739,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>DLeft</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="lgDashDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="lgDashDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Netflow PosNeg'!$A$1:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Netflow PosNeg'!$G$1:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.27785473975855901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55155353255491701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.60612507421333806</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.706758361369483</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.746487235305759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.81763308925390799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.874233128834355</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.849643775974668</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89308331684148001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93137739956461496</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Basic Heuristic</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Netflow PosNeg'!$A$12:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Netflow PosNeg'!$G$12:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.434049079754601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61097367900257205</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.715762913120918</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86928557292697395</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85751038986740502</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.90634276667326297</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95265188996635597</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96789036216109203</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96408074411240796</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.96477340193944106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Eviction With Count</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Netflow PosNeg'!$A$34:$A$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Netflow PosNeg'!$G$34:$G$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.53893726499109396</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73263407876509001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80724322184840602</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90228577082921002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.870720364140114</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.923609736790025</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95700573916485199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97867603403918402</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.944241044923807</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97169998020977599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Eviction Without Count</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="38100">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Netflow PosNeg'!$A$23:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Netflow PosNeg'!$G$23:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.44562636057787403</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72140312685533303</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.79932713239659603</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90149416188402898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90782703344547699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94829804076785995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96719770433405805</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96922620225608502</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96175539283593903</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.98213932317435104</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="304727560"/>
-        <c:axId val="304728736"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="304727560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Table Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304728736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="304728736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>fraction of big loser packets reported</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304727560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9258,6 +11806,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9537,6 +12125,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
@@ -10016,7 +12684,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10532,30 +13200,36 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10568,7 +13242,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10576,7 +13250,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10584,14 +13258,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -10600,8 +13277,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -10624,35 +13302,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10664,19 +13342,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -10685,10 +13362,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10704,16 +13381,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -10723,22 +13405,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10747,17 +13430,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -10766,13 +13449,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10784,20 +13468,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -10811,16 +13501,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -10829,17 +13520,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -10848,16 +13539,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -10866,24 +13558,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -10891,150 +13586,166 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11047,7 +13758,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11055,7 +13766,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11063,14 +13774,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -11079,8 +13793,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -11103,35 +13818,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11143,19 +13858,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -11164,10 +13878,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11183,16 +13897,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11202,22 +13921,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -11226,17 +13946,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -11245,13 +13965,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11263,20 +13984,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11290,16 +14017,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -11308,17 +14036,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -11327,16 +14055,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -11345,24 +14074,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -11370,127 +14102,137 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12006,7 +14748,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12522,7 +15264,1481 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13107,6 +17323,101 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -13138,7 +17449,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -13178,7 +17489,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13213,7 +17524,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13573,7 +17884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -15606,6 +19917,541 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>50</v>
+      </c>
+      <c r="B1">
+        <v>0.538195131604987</v>
+      </c>
+      <c r="C1">
+        <v>0.62650900455175096</v>
+      </c>
+      <c r="D1">
+        <v>0.54329111418958997</v>
+      </c>
+      <c r="E1">
+        <v>0.30071244805066299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>0.74337027508410802</v>
+      </c>
+      <c r="C2">
+        <v>0.86963190184049</v>
+      </c>
+      <c r="D2">
+        <v>0.69582426281416898</v>
+      </c>
+      <c r="E2">
+        <v>0.56802889372649901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>150</v>
+      </c>
+      <c r="B3">
+        <v>0.88056600039580402</v>
+      </c>
+      <c r="C3">
+        <v>0.97511379378586904</v>
+      </c>
+      <c r="D3">
+        <v>0.80912329309321196</v>
+      </c>
+      <c r="E3">
+        <v>0.63531565406689094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>0.93835345339402298</v>
+      </c>
+      <c r="C4">
+        <v>0.99267761725707504</v>
+      </c>
+      <c r="D4">
+        <v>0.84227191767266896</v>
+      </c>
+      <c r="E4">
+        <v>0.720364140114783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="B5">
+        <v>0.976301207203641</v>
+      </c>
+      <c r="C5">
+        <v>0.99698199089649697</v>
+      </c>
+      <c r="D5">
+        <v>0.84479517118543401</v>
+      </c>
+      <c r="E5">
+        <v>0.71210172174945496</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.87566792004749605</v>
+      </c>
+      <c r="E6">
+        <v>0.76415000989511095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>350</v>
+      </c>
+      <c r="B7">
+        <v>0.995398773006135</v>
+      </c>
+      <c r="C7">
+        <v>0.99772412428260404</v>
+      </c>
+      <c r="D7">
+        <v>0.90327528201068596</v>
+      </c>
+      <c r="E7">
+        <v>0.78443498911537701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8">
+        <v>0.99767464872352996</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.90733227785473902</v>
+      </c>
+      <c r="E8">
+        <v>0.75222640015832098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>450</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.91148822481694003</v>
+      </c>
+      <c r="E9">
+        <v>0.78280229566594095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.938551355630318</v>
+      </c>
+      <c r="E10">
+        <v>0.81214130219671399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.79338842975206603</v>
+      </c>
+      <c r="C12">
+        <v>0.65289256198347101</v>
+      </c>
+      <c r="D12">
+        <v>0.77685950413223104</v>
+      </c>
+      <c r="E12">
+        <v>0.90909090909090895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="C13">
+        <v>0.30578512396694202</v>
+      </c>
+      <c r="D13">
+        <v>0.61157024793388404</v>
+      </c>
+      <c r="E13">
+        <v>0.75206611570247905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <v>0.28099173553718998</v>
+      </c>
+      <c r="C14">
+        <v>7.43801652892562E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.46280991735537103</v>
+      </c>
+      <c r="E14">
+        <v>0.68595041322313999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>0.173553719008264</v>
+      </c>
+      <c r="C15">
+        <v>2.4793388429752001E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.40495867768595001</v>
+      </c>
+      <c r="E15">
+        <v>0.57851239669421395</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>250</v>
+      </c>
+      <c r="B16">
+        <v>7.43801652892562E-2</v>
+      </c>
+      <c r="C16">
+        <v>8.2644628099173504E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.38016528925619802</v>
+      </c>
+      <c r="E16">
+        <v>0.61157024793388404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>300</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.30578512396694202</v>
+      </c>
+      <c r="E17">
+        <v>0.52892561983470998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>350</v>
+      </c>
+      <c r="B18">
+        <v>1.6528925619834701E-2</v>
+      </c>
+      <c r="C18">
+        <v>8.2644628099173504E-3</v>
+      </c>
+      <c r="D18">
+        <v>0.256198347107438</v>
+      </c>
+      <c r="E18">
+        <v>0.47107438016528902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>400</v>
+      </c>
+      <c r="B19">
+        <v>8.2644628099173504E-3</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.22314049586776799</v>
+      </c>
+      <c r="E19">
+        <v>0.53719008264462798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>450</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.19834710743801601</v>
+      </c>
+      <c r="E20">
+        <v>0.46280991735537103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>500</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.165289256198347</v>
+      </c>
+      <c r="E21">
+        <v>0.413223140495867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>2.6751241036955E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.75963188270159898</v>
+      </c>
+      <c r="D23">
+        <v>0.124760950733087</v>
+      </c>
+      <c r="E23">
+        <v>0.52648897663704497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <v>2.0232945091514298E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.24796545424348301</v>
+      </c>
+      <c r="D24">
+        <v>0.10302901023890899</v>
+      </c>
+      <c r="E24">
+        <v>0.54350666318264995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>150</v>
+      </c>
+      <c r="B25">
+        <v>1.88785256770422E-2</v>
+      </c>
+      <c r="C25">
+        <v>9.5978867038450405E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.10926990338755201</v>
+      </c>
+      <c r="E25">
+        <v>0.59496923915583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <v>1.2232415902140401E-2</v>
+      </c>
+      <c r="C26">
+        <v>2.27606461086639E-2</v>
+      </c>
+      <c r="D26">
+        <v>6.0561560150375698E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.61929945054945501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <v>5.5744184867988602E-3</v>
+      </c>
+      <c r="C27">
+        <v>9.2473543665315908E-3</v>
+      </c>
+      <c r="D27">
+        <v>7.1390922401170703E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.52080872646426601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <v>2.9190579853551999E-3</v>
+      </c>
+      <c r="C28">
+        <v>2.8695824262814302E-3</v>
+      </c>
+      <c r="D28">
+        <v>7.8761511949826904E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.65516348332793195</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>350</v>
+      </c>
+      <c r="B29">
+        <v>1.4911277896515801E-3</v>
+      </c>
+      <c r="C29">
+        <v>1.6823354774864101E-3</v>
+      </c>
+      <c r="D29">
+        <v>2.9249055156925399E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.61343424787132905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>400</v>
+      </c>
+      <c r="B30">
+        <v>1.0414083808578901E-3</v>
+      </c>
+      <c r="C30">
+        <v>1.48096954139309E-3</v>
+      </c>
+      <c r="D30">
+        <v>1.78853808822729E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.58392528282031197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>450</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.9685335444290501E-4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6.4318226795963295E-4</v>
+      </c>
+      <c r="D31">
+        <v>1.16701948651143E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.58835798255593597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>500</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7.9160894518107096E-4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6.4178515007898805E-4</v>
+      </c>
+      <c r="D32">
+        <v>4.1486557722720301E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.58598842522083505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B101"/>
   <sheetViews>
@@ -16429,7 +21275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -17560,7 +22406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
